--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16650" windowHeight="12630"/>
+    <workbookView windowWidth="13455" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>日期</t>
   </si>
@@ -44,6 +44,21 @@
   <si>
     <t>巩固python基础语法</t>
   </si>
+  <si>
+    <t>上午8:00-11:30</t>
+  </si>
+  <si>
+    <t>理解依存语法分析</t>
+  </si>
+  <si>
+    <t>下午2:10-17:30</t>
+  </si>
+  <si>
+    <t>了解自然语言处理简介</t>
+  </si>
+  <si>
+    <t>复习Python中基础知识</t>
+  </si>
 </sst>
 </file>
 
@@ -51,9 +66,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -73,22 +88,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,22 +118,106 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,90 +230,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -225,49 +240,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,133 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +451,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -445,11 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +508,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -480,39 +528,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1063,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1101,22 +1116,42 @@
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
       <c r="A7" s="2"/>

--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13455" windowHeight="12630"/>
+    <workbookView windowWidth="22590" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -58,6 +58,37 @@
   </si>
   <si>
     <t>复习Python中基础知识</t>
+  </si>
+  <si>
+    <t>复习Python正则表达式</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+  </si>
+  <si>
+    <t>深入学习语义角色标注：</t>
+  </si>
+  <si>
+    <t>了解Anacnoda工具以及一些包的介绍</t>
   </si>
 </sst>
 </file>
@@ -65,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +119,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,8 +140,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,13 +171,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -132,92 +217,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +254,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -240,91 +279,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,98 +463,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -449,11 +488,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +593,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -531,21 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -554,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,137 +642,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +787,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1063,14 +1148,14 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1154,22 +1239,42 @@
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="5">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
@@ -1328,6 +1433,9 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>日期</t>
   </si>
@@ -90,18 +90,49 @@
   <si>
     <t>了解Anacnoda工具以及一些包的介绍</t>
   </si>
+  <si>
+    <t>学习了解Anaconda以及配置环境</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+  </si>
+  <si>
+    <t>安装并配置Anaconda</t>
+  </si>
+  <si>
+    <t>学习《数学之美》</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,14 +150,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,24 +263,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,93 +286,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +298,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -279,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +563,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,35 +619,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,8 +646,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,22 +656,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +680,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1186,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1277,22 +1315,42 @@
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="5">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
@@ -1433,8 +1491,9 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="12630"/>
+    <workbookView windowWidth="22590" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -94,32 +94,19 @@
     <t>学习了解Anaconda以及配置环境</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
+    <t>初步完成</t>
   </si>
   <si>
     <t>安装并配置Anaconda</t>
   </si>
   <si>
+    <t>并安装了常用的一些工具</t>
+  </si>
+  <si>
     <t>学习《数学之美》</t>
+  </si>
+  <si>
+    <t>还没看完，看到p60页</t>
   </si>
 </sst>
 </file>
@@ -127,12 +114,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +137,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -157,99 +165,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,20 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -285,11 +249,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,14 +286,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,49 +296,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,133 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,17 +542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,11 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,32 +591,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -660,6 +613,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -668,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,16 +659,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,115 +677,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1165,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1194,7 +1173,7 @@
     <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="48.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1325,19 +1304,19 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:4">
@@ -1346,10 +1325,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">

--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -108,6 +108,40 @@
   <si>
     <t>还没看完，看到p60页</t>
   </si>
+  <si>
+    <t>学习falsk框架</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+  </si>
+  <si>
+    <t>学习Jenkins构建项目帮助文档</t>
+  </si>
+  <si>
+    <t>用Anaconda创建虚拟环境</t>
+  </si>
+  <si>
+    <t>未完待续</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +153,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,83 +171,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,9 +207,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,42 +315,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -285,6 +326,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -296,25 +338,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,25 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,127 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,38 +587,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,9 +610,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,8 +637,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,11 +675,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +689,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,19 +701,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,112 +722,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,8 +1206,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1332,22 +1374,42 @@
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
@@ -1470,9 +1532,10 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>日期</t>
   </si>
@@ -112,28 +112,6 @@
     <t>学习falsk框架</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
-  </si>
-  <si>
     <t>学习Jenkins构建项目帮助文档</t>
   </si>
   <si>
@@ -141,6 +119,30 @@
   </si>
   <si>
     <t>未完待续</t>
+  </si>
+  <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>熟悉flask中的代码，</t>
+  </si>
+  <si>
+    <t>学习文档;了解Numpy</t>
+  </si>
+  <si>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
+  </si>
+  <si>
+    <t>配置vue运行环境</t>
+  </si>
+  <si>
+    <t>学习vue基础知识</t>
+  </si>
+  <si>
+    <t>明天继续</t>
   </si>
 </sst>
 </file>
@@ -149,11 +151,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,14 +173,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +210,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +246,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -207,97 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -307,27 +317,11 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,13 +332,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,13 +458,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,151 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,25 +578,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -610,11 +595,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,24 +628,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,11 +661,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,133 +695,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1390,10 +1384,10 @@
     <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1405,47 +1399,83 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2" t="s">
+    </row>
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="5">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="5">
+        <v>43668</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
@@ -1532,10 +1562,12 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -144,6 +144,18 @@
   <si>
     <t>明天继续</t>
   </si>
+  <si>
+    <t>深入学习vue</t>
+  </si>
+  <si>
+    <t>在电脑上安装mac操作系统</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>编写小组前端网页</t>
+  </si>
 </sst>
 </file>
 
@@ -173,9 +185,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,8 +274,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,16 +306,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,99 +329,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -332,13 +344,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,43 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,121 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,25 +591,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,17 +614,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,8 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,16 +673,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -683,145 +695,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,7 +1213,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D21"/>
+      <selection activeCell="A22" sqref="A22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1478,22 +1490,42 @@
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
@@ -1562,12 +1594,13 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>日期</t>
   </si>
@@ -156,16 +156,25 @@
   <si>
     <t>编写小组前端网页</t>
   </si>
+  <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看elementUI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -200,7 +209,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +271,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,31 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,70 +323,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,19 +353,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,37 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,121 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +599,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -608,8 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,42 +677,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1528,22 +1537,42 @@
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>

--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="12075"/>
+    <workbookView windowWidth="22620" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>日期</t>
   </si>
@@ -165,18 +165,85 @@
   <si>
     <t>查看elementUI</t>
   </si>
+  <si>
+    <t>实现前后端交互</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+  </si>
+  <si>
+    <t>前后端数据交互</t>
+  </si>
+  <si>
+    <t>数据能互相传递</t>
+  </si>
+  <si>
+    <t>前后端数据交互和跨域问题</t>
+  </si>
+  <si>
+    <t>数据接收存在问题</t>
+  </si>
+  <si>
+    <t>优化前端界面</t>
+  </si>
+  <si>
+    <t>处理前端接收到的数据</t>
+  </si>
+  <si>
+    <t>整合vue和接口</t>
+  </si>
+  <si>
+    <t>看清华大学自然语言研究报告，普及知识</t>
+  </si>
+  <si>
+    <t>小组会议，安排下一周工作</t>
+  </si>
+  <si>
+    <t>用CRF完成中文分词</t>
+  </si>
+  <si>
+    <t>对分词进行训练</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
+    <t>学习用crf进行标注</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +275,59 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -216,15 +336,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +353,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +374,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -253,85 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,6 +410,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,13 +428,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,169 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,35 +676,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,24 +700,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +732,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -704,127 +779,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,16 +917,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,10 +1294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1575,61 +1650,188 @@
       </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="5">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="5">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A34" s="5">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="61" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" ht="50" customHeight="1" spans="1:4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" ht="56" customHeight="1" spans="1:4">
+      <c r="A37" s="5">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" ht="56" customHeight="1" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" ht="56" customHeight="1" spans="1:4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" ht="41" customHeight="1" spans="1:4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" ht="26" customHeight="1" spans="1:4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/201705034207张新博.xlsx
+++ b/doc/log/201705034207张新博.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22620" windowHeight="12090"/>
+    <workbookView windowWidth="28020" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>日期</t>
   </si>
@@ -172,6 +172,48 @@
     <t>失败</t>
   </si>
   <si>
+    <t>前后端数据交互</t>
+  </si>
+  <si>
+    <t>数据能互相传递</t>
+  </si>
+  <si>
+    <t>前后端数据交互和跨域问题</t>
+  </si>
+  <si>
+    <t>数据接收存在问题</t>
+  </si>
+  <si>
+    <t>优化前端界面</t>
+  </si>
+  <si>
+    <t>处理前端接收到的数据</t>
+  </si>
+  <si>
+    <t>整合vue和接口</t>
+  </si>
+  <si>
+    <t>看清华大学自然语言研究报告，普及知识</t>
+  </si>
+  <si>
+    <t>小组会议，安排下一周工作</t>
+  </si>
+  <si>
+    <t>用CRF完成中文分词</t>
+  </si>
+  <si>
+    <t>对分词进行训练</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
+    <t>学习用crf进行标注</t>
+  </si>
+  <si>
+    <t>每周例会，明确本周任务</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -187,50 +229,97 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
   </si>
   <si>
-    <t>前后端数据交互</t>
-  </si>
-  <si>
-    <t>数据能互相传递</t>
-  </si>
-  <si>
-    <t>前后端数据交互和跨域问题</t>
-  </si>
-  <si>
-    <t>数据接收存在问题</t>
-  </si>
-  <si>
-    <t>优化前端界面</t>
-  </si>
-  <si>
-    <t>处理前端接收到的数据</t>
-  </si>
-  <si>
-    <t>整合vue和接口</t>
-  </si>
-  <si>
-    <t>看清华大学自然语言研究报告，普及知识</t>
-  </si>
-  <si>
-    <t>小组会议，安排下一周工作</t>
-  </si>
-  <si>
-    <t>用CRF完成中文分词</t>
-  </si>
-  <si>
-    <t>对分词进行训练</t>
-  </si>
-  <si>
-    <t>基本完成</t>
-  </si>
-  <si>
-    <t>学习用crf进行标注</t>
+    <t>了解CRF的基本原理和安装</t>
+  </si>
+  <si>
+    <t>尝试用CRF进行分词</t>
+  </si>
+  <si>
+    <t>未完成，待续</t>
+  </si>
+  <si>
+    <t>学习Deep Semantic Role Labeling with Self-Attention真难</t>
+  </si>
+  <si>
+    <t>真难</t>
+  </si>
+  <si>
+    <t>对crf进行语义角色标注陷入迷茫之中</t>
+  </si>
+  <si>
+    <t>通过向学长了解终于明白其中的流程并从学长那里得到语料库</t>
+  </si>
+  <si>
+    <t>开始搭建基本框架进行语义角色标注</t>
+  </si>
+  <si>
+    <t>完善自己搭建的框架并解决问题</t>
+  </si>
+  <si>
+    <t>先通过死数据并拿到数据</t>
+  </si>
+  <si>
+    <t>再用前端输入数据进行传递，但是后端接收不到数据</t>
+  </si>
+  <si>
+    <t>解决前端往后端返回有问题</t>
+  </si>
+  <si>
+    <t>完善整个服务</t>
+  </si>
+  <si>
+    <t>最终能粗略实现语义角色标注</t>
+  </si>
+  <si>
+    <t>开始学习pytorch</t>
+  </si>
+  <si>
+    <t>还没学完</t>
+  </si>
+  <si>
+    <t>简单了解神经网络</t>
+  </si>
+  <si>
+    <t>将模型部署到服务器上，修改model路径</t>
+  </si>
+  <si>
+    <t>接口出现问题，重新修改服务器上的model</t>
+  </si>
+  <si>
+    <t>看pytorch官方文档了解基础</t>
+  </si>
+  <si>
+    <t>未看完</t>
+  </si>
+  <si>
+    <t>在B站上找资源学习pytorch</t>
+  </si>
+  <si>
+    <t>基础知识还没了解完，太多了</t>
+  </si>
+  <si>
+    <t>学习numpy和pandas，了解了基础</t>
+  </si>
+  <si>
+    <t>小组开会总结工作，并安排任务</t>
+  </si>
+  <si>
+    <t>开会，各个小组展示了各自的进度，老师做下一步指示</t>
+  </si>
+  <si>
+    <t>了解CNN基础</t>
+  </si>
+  <si>
+    <t>但是并不是很了解</t>
+  </si>
+  <si>
+    <t>继续学习CNN,RNN神经网络</t>
   </si>
 </sst>
 </file>
@@ -239,8 +328,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -260,8 +349,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,72 +364,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,25 +380,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,14 +401,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -428,187 +517,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,15 +763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -694,6 +774,51 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,37 +838,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,17 +852,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,10 +868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,133 +880,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,10 +1383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1666,13 +1755,13 @@
     <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="6"/>
       <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:4">
@@ -1681,10 +1770,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:4">
@@ -1695,7 +1784,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1704,10 +1793,10 @@
     <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="6"/>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1719,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>38</v>
@@ -1733,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1742,10 +1831,10 @@
     <row r="35" ht="61" customHeight="1" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1757,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1771,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1780,13 +1869,13 @@
     <row r="38" ht="56" customHeight="1" spans="1:4">
       <c r="A38" s="6"/>
       <c r="B38" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="39" ht="56" customHeight="1" spans="1:4">
@@ -1795,32 +1884,461 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="41" customHeight="1" spans="1:4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" ht="26" customHeight="1" spans="1:4">
+    <row r="40" ht="42" customHeight="1" spans="1:4">
+      <c r="A40" s="5">
+        <v>43675</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:4">
       <c r="A41" s="6"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:4">
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:4">
       <c r="A42" s="7"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:4">
+      <c r="A43" s="5">
+        <v>43676</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" ht="42" customHeight="1" spans="1:4">
+      <c r="A45" s="7"/>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" ht="42" customHeight="1" spans="1:4">
+      <c r="A46" s="5">
+        <v>43677</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" ht="42" customHeight="1" spans="1:4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" ht="42" customHeight="1" spans="1:4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" ht="42" customHeight="1" spans="1:4">
+      <c r="A49" s="5">
+        <v>43678</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" ht="42" customHeight="1" spans="1:4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" ht="42" customHeight="1" spans="1:4">
+      <c r="A51" s="7"/>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" ht="42" customHeight="1" spans="1:4">
+      <c r="A52" s="5">
+        <v>43679</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" ht="42" customHeight="1" spans="1:4">
+      <c r="A53" s="6"/>
+      <c r="B53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" ht="42" customHeight="1" spans="1:4">
+      <c r="A54" s="7"/>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" ht="42" customHeight="1" spans="1:4">
+      <c r="A55" s="5">
+        <v>43680</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" ht="42" customHeight="1" spans="1:4">
+      <c r="A56" s="6"/>
+      <c r="B56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" ht="42" customHeight="1" spans="1:4">
+      <c r="A57" s="7"/>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" ht="42" customHeight="1" spans="1:4">
+      <c r="A58" s="5">
+        <v>43682</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" ht="42" customHeight="1" spans="1:4">
+      <c r="A59" s="6"/>
+      <c r="B59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" ht="42" customHeight="1" spans="1:4">
+      <c r="A60" s="7"/>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="1:4">
+      <c r="A61" s="5">
+        <v>43683</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" ht="42" customHeight="1" spans="1:4">
+      <c r="A62" s="6"/>
+      <c r="B62" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" ht="42" customHeight="1" spans="1:4">
+      <c r="A63" s="7"/>
+      <c r="B63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" ht="42" customHeight="1" spans="1:4">
+      <c r="A64" s="5">
+        <v>43684</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" ht="42" customHeight="1" spans="1:4">
+      <c r="A65" s="6"/>
+      <c r="B65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" ht="42" customHeight="1" spans="1:4">
+      <c r="A66" s="7"/>
+      <c r="B66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" ht="42" customHeight="1"/>
+    <row r="68" ht="42" customHeight="1"/>
+    <row r="69" ht="42" customHeight="1"/>
+    <row r="70" ht="42" customHeight="1"/>
+    <row r="71" ht="42" customHeight="1"/>
+    <row r="72" ht="42" customHeight="1"/>
+    <row r="73" ht="42" customHeight="1"/>
+    <row r="74" ht="42" customHeight="1"/>
+    <row r="75" ht="42" customHeight="1"/>
+    <row r="76" ht="42" customHeight="1"/>
+    <row r="77" ht="42" customHeight="1"/>
+    <row r="78" ht="42" customHeight="1"/>
+    <row r="79" ht="42" customHeight="1"/>
+    <row r="80" ht="42" customHeight="1"/>
+    <row r="81" ht="42" customHeight="1"/>
+    <row r="82" ht="42" customHeight="1"/>
+    <row r="83" ht="42" customHeight="1"/>
+    <row r="84" ht="42" customHeight="1"/>
+    <row r="85" ht="42" customHeight="1"/>
+    <row r="86" ht="42" customHeight="1"/>
+    <row r="87" ht="42" customHeight="1"/>
+    <row r="88" ht="42" customHeight="1"/>
+    <row r="89" ht="42" customHeight="1"/>
+    <row r="90" ht="42" customHeight="1"/>
+    <row r="91" ht="42" customHeight="1"/>
+    <row r="92" ht="42" customHeight="1"/>
+    <row r="93" ht="42" customHeight="1"/>
+    <row r="94" ht="42" customHeight="1"/>
+    <row r="95" ht="42" customHeight="1"/>
+    <row r="96" ht="42" customHeight="1"/>
+    <row r="97" ht="42" customHeight="1"/>
+    <row r="98" ht="42" customHeight="1"/>
+    <row r="99" ht="42" customHeight="1"/>
+    <row r="100" ht="42" customHeight="1"/>
+    <row r="101" ht="42" customHeight="1"/>
+    <row r="102" ht="42" customHeight="1"/>
+    <row r="103" ht="42" customHeight="1"/>
+    <row r="104" ht="42" customHeight="1"/>
+    <row r="105" ht="42" customHeight="1"/>
+    <row r="106" ht="42" customHeight="1"/>
+    <row r="107" ht="42" customHeight="1"/>
+    <row r="108" ht="42" customHeight="1"/>
+    <row r="109" ht="42" customHeight="1"/>
+    <row r="110" ht="42" customHeight="1"/>
+    <row r="111" ht="42" customHeight="1"/>
+    <row r="112" ht="42" customHeight="1"/>
+    <row r="113" ht="42" customHeight="1"/>
+    <row r="114" ht="42" customHeight="1"/>
+    <row r="115" ht="42" customHeight="1"/>
+    <row r="116" ht="42" customHeight="1"/>
+    <row r="117" ht="42" customHeight="1"/>
+    <row r="118" ht="42" customHeight="1"/>
+    <row r="119" ht="42" customHeight="1"/>
+    <row r="120" ht="42" customHeight="1"/>
+    <row r="121" ht="42" customHeight="1"/>
+    <row r="122" ht="42" customHeight="1"/>
+    <row r="123" ht="42" customHeight="1"/>
+    <row r="124" ht="42" customHeight="1"/>
+    <row r="125" ht="42" customHeight="1"/>
+    <row r="126" ht="42" customHeight="1"/>
+    <row r="127" ht="42" customHeight="1"/>
+    <row r="128" ht="42" customHeight="1"/>
+    <row r="129" ht="42" customHeight="1"/>
+    <row r="130" ht="42" customHeight="1"/>
+    <row r="131" ht="42" customHeight="1"/>
+    <row r="132" ht="42" customHeight="1"/>
+    <row r="133" ht="42" customHeight="1"/>
+    <row r="134" ht="42" customHeight="1"/>
+    <row r="135" ht="42" customHeight="1"/>
+    <row r="136" ht="42" customHeight="1"/>
+    <row r="137" ht="42" customHeight="1"/>
+    <row r="138" ht="42" customHeight="1"/>
+    <row r="139" ht="42" customHeight="1"/>
+    <row r="140" ht="42" customHeight="1"/>
+    <row r="141" ht="42" customHeight="1"/>
+    <row r="142" ht="42" customHeight="1"/>
+    <row r="143" ht="42" customHeight="1"/>
+    <row r="144" ht="42" customHeight="1"/>
+    <row r="145" ht="42" customHeight="1"/>
+    <row r="146" ht="42" customHeight="1"/>
+    <row r="147" ht="42" customHeight="1"/>
+    <row r="148" ht="42" customHeight="1"/>
+    <row r="149" ht="42" customHeight="1"/>
+    <row r="150" ht="42" customHeight="1"/>
+    <row r="151" ht="42" customHeight="1"/>
+    <row r="152" ht="42" customHeight="1"/>
+    <row r="153" ht="42" customHeight="1"/>
+    <row r="154" ht="42" customHeight="1"/>
+    <row r="155" ht="42" customHeight="1"/>
+    <row r="156" ht="42" customHeight="1"/>
+    <row r="157" ht="42" customHeight="1"/>
+    <row r="158" ht="42" customHeight="1"/>
+    <row r="159" ht="42" customHeight="1"/>
+    <row r="160" ht="42" customHeight="1"/>
+    <row r="161" ht="42" customHeight="1"/>
+    <row r="162" ht="42" customHeight="1"/>
+    <row r="163" ht="42" customHeight="1"/>
+    <row r="164" ht="42" customHeight="1"/>
+    <row r="165" ht="42" customHeight="1"/>
+    <row r="166" ht="42" customHeight="1"/>
+    <row r="167" ht="42" customHeight="1"/>
+    <row r="168" ht="42" customHeight="1"/>
+    <row r="169" ht="42" customHeight="1"/>
+    <row r="170" ht="42" customHeight="1"/>
+    <row r="171" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
@@ -1832,6 +2350,14 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
